--- a/biology/Médecine/Jean_Civatte/Jean_Civatte.xlsx
+++ b/biology/Médecine/Jean_Civatte/Jean_Civatte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Civatte, né le 14 mars 1922 à Paris et mort le 10 février 2020 à Talant[1], est un dermatologue et professeur français, ancien chef de service de l'hôpital Saint-Louis[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Civatte, né le 14 mars 1922 à Paris et mort le 10 février 2020 à Talant, est un dermatologue et professeur français, ancien chef de service de l'hôpital Saint-Louis.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de l'éminent professeur en dermatologie Achille Civatte (1877-1956), Jean Joseph Civatte s'oriente vers la dermatologie influencé par le professeur Degos dont il est l'interne, puis devient chef de clinique de rhumatologie et dermatologie (1954-1956), chef de laboratoire avant d'être agrégé à partir de 1961 et d'enfin prendre la relève de son maître. Il poursuit sa carrière comme professeur de clinique des maladies cutanées et syphilitiques à l'université Paris 7 et chef de service à l'hôpital Saint-Louis à partir de 1975[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de l'éminent professeur en dermatologie Achille Civatte (1877-1956), Jean Joseph Civatte s'oriente vers la dermatologie influencé par le professeur Degos dont il est l'interne, puis devient chef de clinique de rhumatologie et dermatologie (1954-1956), chef de laboratoire avant d'être agrégé à partir de 1961 et d'enfin prendre la relève de son maître. Il poursuit sa carrière comme professeur de clinique des maladies cutanées et syphilitiques à l'université Paris 7 et chef de service à l'hôpital Saint-Louis à partir de 1975,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publia durant sa carrière plus de 620 publications et fut rédacteur en chef des Annales de dermatologie de 1967 à 1976[2],[3].
-Il organisa pendant près de 30 ans les Journées dermatologiques de Paris[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publia durant sa carrière plus de 620 publications et fut rédacteur en chef des Annales de dermatologie de 1967 à 1976,.
+Il organisa pendant près de 30 ans les Journées dermatologiques de Paris.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Académies et sociétés savantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Membre de l'Académie nationale de médecine en 1990, puis trésorier et enfin membre émérite en 2014[2],[3],
-Président de la Société française de dermatologie de 1972 à 1973, puis secrétaire de 1976 à 1991[3],
-Membre de l'académie de Leopoldina, académie de médecine du Brésil, du Venezuela, d'Argentine et de l'académie des Sciences médicales de Roumanie[2],
-Docteur honoris causa de l'université de Thessalonique, de Coimbra et d'Athènes[2],
-Président du Comité international de dermatologie entre 1982 et 1987[2],[3].
-Fondateur en 1980 du Club Unna-Darier, groupe d'experts internationaux en dermopathologie[3],</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Membre de l'Académie nationale de médecine en 1990, puis trésorier et enfin membre émérite en 2014
+Président de la Société française de dermatologie de 1972 à 1973, puis secrétaire de 1976 à 1991,
+Membre de l'académie de Leopoldina, académie de médecine du Brésil, du Venezuela, d'Argentine et de l'académie des Sciences médicales de Roumanie,
+Docteur honoris causa de l'université de Thessalonique, de Coimbra et d'Athènes,
+Président du Comité international de dermatologie entre 1982 et 1987,.
+Fondateur en 1980 du Club Unna-Darier, groupe d'experts internationaux en dermopathologie,</t>
         </is>
       </c>
     </row>
